--- a/biology/Zoologie/Colombine_du_Pacifique/Colombine_du_Pacifique.xlsx
+++ b/biology/Zoologie/Colombine_du_Pacifique/Colombine_du_Pacifique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chalcophaps longirostris
 La Colombine du Pacifique (Chalcophaps longirostris) est une espèce d'oiseaux appartenant à la famille des Columbidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau ressemble à la Colombine turvert mais sa tête est entièrement marron pourpre, le mâle est légèrement plus grand avec une coloration moins rouge vineux tandis que la femelle présente une tache blanche sur chaque épaule.
 </t>
@@ -543,7 +557,9 @@
           <t>Répartition et sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Chalcophaps longirostris timorensis
 Chalcophaps longirostris longirostris
@@ -576,7 +592,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La reproduction tend à se produire au printemps ou au début de l'été dans le sud de l'Australie et vers la fin de la saison sèche dans le nord.
 </t>
